--- a/DATA/RAW/bond_data/os_PA5040006_Aliquippa.xlsx
+++ b/DATA/RAW/bond_data/os_PA5040006_Aliquippa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19524\Box\Shrinking Cities\data\bond_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19524\Box\Shrinking Cities MP\data\bond_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F81537-D9CA-4C3C-9396-E21CE2AD34B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A6A9C4-D843-452D-960A-86E965B375C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="16" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="14" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="17" r:id="rId1"/>
@@ -33,6 +33,7 @@
     <sheet name="fiscal" sheetId="16" r:id="rId18"/>
     <sheet name="assets" sheetId="20" r:id="rId19"/>
     <sheet name="revCollect" sheetId="15" r:id="rId20"/>
+    <sheet name="financialIndicators" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -113,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4867" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4943" uniqueCount="554">
   <si>
     <t>PWSID</t>
   </si>
@@ -1598,13 +1601,345 @@
   </si>
   <si>
     <t>y1986</t>
+  </si>
+  <si>
+    <t>Line Item</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>Enter as shown in the Total Operating Revenues line</t>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>Enter as shown in the Total Operating Expenses line</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>Depreciation &amp; Amortization Expenses</t>
+  </si>
+  <si>
+    <t>Depreciation and amortization are listed as a line item within Operating Expenses</t>
+  </si>
+  <si>
+    <t>[4]</t>
+  </si>
+  <si>
+    <t>Debt Principal Payments</t>
+  </si>
+  <si>
+    <t>Enter $0 if there were no debt service payments</t>
+  </si>
+  <si>
+    <t>Debt Interest Payments</t>
+  </si>
+  <si>
+    <t>[4b]</t>
+  </si>
+  <si>
+    <t>Current Assets, excluding inventories, restricted cash, prepaids</t>
+  </si>
+  <si>
+    <t>[5]</t>
+  </si>
+  <si>
+    <t>Total Current Assets minus all inventories, prepaid items and any kind of restricted cash or restricted assets that cannot be used to pay for Current Liabilities</t>
+  </si>
+  <si>
+    <t>Current Liabilities, excluding deposits &amp; bond anticipation notes</t>
+  </si>
+  <si>
+    <t>[6]</t>
+  </si>
+  <si>
+    <t>Total Current Liabilities minus all refundable deposits and bond anticipation notes</t>
+  </si>
+  <si>
+    <t>Unrestricted Cash &amp; Investments</t>
+  </si>
+  <si>
+    <t>[7]</t>
+  </si>
+  <si>
+    <t>Unrestricted Cash &amp; Investments (and Cash Equivalents) is listed as a line item within Current Assets</t>
+  </si>
+  <si>
+    <t>Total Accumulated Depreciation</t>
+  </si>
+  <si>
+    <t>[8]</t>
+  </si>
+  <si>
+    <t>Total accumulated depreciation on capital assets being depreciated (buildings, equipment, other improvements) is usually shown in the Detail Notes on Capital Assets.</t>
+  </si>
+  <si>
+    <t>Total Depreciable Capital Assets</t>
+  </si>
+  <si>
+    <t>[9]</t>
+  </si>
+  <si>
+    <t>Enter the total value of capital assets being depreciated (buildings, equipment, othre improvements) only. Often listed in Detail Notes on Capital Assets.</t>
+  </si>
+  <si>
+    <t>[10]</t>
+  </si>
+  <si>
+    <t>[11]</t>
+  </si>
+  <si>
+    <t>Capital Spending</t>
+  </si>
+  <si>
+    <t>[12]</t>
+  </si>
+  <si>
+    <t>Enter Current PPE less Prior PPE + Depreciation</t>
+  </si>
+  <si>
+    <t>Indicators</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Operating Ratio (including depreciation)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">_[1]_ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+[2]</t>
+    </r>
+  </si>
+  <si>
+    <t>Operating Ratio (not including depreciation)</t>
+  </si>
+  <si>
+    <r>
+      <t>___</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[1]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">___
+ [2] - [3] </t>
+    </r>
+  </si>
+  <si>
+    <t>Debt Service coverage ratio</t>
+  </si>
+  <si>
+    <t>Quick Ratio</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">_[5]_
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[6]</t>
+    </r>
+  </si>
+  <si>
+    <t>Days cash on hand</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">____[7]____
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(([2] - [3])/365)</t>
+    </r>
+  </si>
+  <si>
+    <t>Percent of capital assets depreciated</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">_[8]_
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[9]</t>
+    </r>
+  </si>
+  <si>
+    <t>Debt to Equity Ratio</t>
+  </si>
+  <si>
+    <r>
+      <t>__</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[11]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>__
+( [10] - [11])</t>
+    </r>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Average plant age</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">_[8]_
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[3]</t>
+    </r>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>CapEx</t>
+  </si>
+  <si>
+    <t>Replacement ratio</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">_CapEx_
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[3]</t>
+    </r>
+  </si>
+  <si>
+    <t>*in cases where accumulated depcreciation is not available, calculate as: 35 - (net PPE / annual depreciation expense)</t>
+  </si>
+  <si>
+    <t>**can also look in cash flow statement for capex value</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">_[1] -  [2] + [3] _
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[4] + [4b]</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -1612,8 +1947,9 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1662,6 +1998,36 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1714,7 +2080,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1816,6 +2182,32 @@
     <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -13547,7 +13939,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="8.88671875" style="1"/>
+    <col min="1" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="22" style="1" customWidth="1"/>
     <col min="5" max="11" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" customWidth="1"/>
     <col min="13" max="17" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
@@ -16630,17 +17023,17 @@
   <dimension ref="A1:AK72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="12" ySplit="9" topLeftCell="M10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="9" topLeftCell="M30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="E61" sqref="E61"/>
+      <selection pane="bottomRight" activeCell="D37" sqref="D37:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="24" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="19" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.77734375" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.88671875" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.5546875" style="1" customWidth="1"/>
@@ -21149,8 +21542,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21734,7 +22127,7 @@
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -22126,6 +22519,3386 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C1ADC4-69DA-4044-AD3F-3F1504F69C47}">
+  <dimension ref="A1:AK38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:AK26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.88671875" customWidth="1"/>
+    <col min="2" max="2" width="61.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="2.5546875" customWidth="1"/>
+    <col min="5" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="27" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="31" width="10" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="B1" s="53" t="s">
+        <v>495</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>496</v>
+      </c>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53">
+        <v>1986</v>
+      </c>
+      <c r="F1" s="53">
+        <v>1987</v>
+      </c>
+      <c r="G1" s="53">
+        <v>1988</v>
+      </c>
+      <c r="H1" s="53">
+        <v>1989</v>
+      </c>
+      <c r="I1" s="53">
+        <v>1990</v>
+      </c>
+      <c r="J1" s="53">
+        <v>1991</v>
+      </c>
+      <c r="K1" s="53">
+        <v>1992</v>
+      </c>
+      <c r="L1" s="53">
+        <v>1993</v>
+      </c>
+      <c r="M1" s="53">
+        <v>1994</v>
+      </c>
+      <c r="N1" s="53">
+        <v>1995</v>
+      </c>
+      <c r="O1" s="53">
+        <v>1996</v>
+      </c>
+      <c r="P1" s="53">
+        <v>1997</v>
+      </c>
+      <c r="Q1" s="53">
+        <v>1998</v>
+      </c>
+      <c r="R1" s="53">
+        <v>1999</v>
+      </c>
+      <c r="S1" s="53">
+        <v>2000</v>
+      </c>
+      <c r="T1" s="53">
+        <v>2001</v>
+      </c>
+      <c r="U1" s="53">
+        <v>2002</v>
+      </c>
+      <c r="V1" s="53">
+        <v>2003</v>
+      </c>
+      <c r="W1" s="53">
+        <v>2004</v>
+      </c>
+      <c r="X1" s="53">
+        <v>2005</v>
+      </c>
+      <c r="Y1" s="53">
+        <v>2006</v>
+      </c>
+      <c r="Z1" s="53">
+        <v>2007</v>
+      </c>
+      <c r="AA1" s="53">
+        <v>2008</v>
+      </c>
+      <c r="AB1" s="53">
+        <v>2009</v>
+      </c>
+      <c r="AC1" s="53">
+        <v>2010</v>
+      </c>
+      <c r="AD1" s="53">
+        <v>2011</v>
+      </c>
+      <c r="AE1" s="53">
+        <v>2012</v>
+      </c>
+      <c r="AF1" s="53">
+        <v>2013</v>
+      </c>
+      <c r="AG1" s="53">
+        <v>2014</v>
+      </c>
+      <c r="AH1" s="53">
+        <v>2015</v>
+      </c>
+      <c r="AI1" s="53">
+        <v>2016</v>
+      </c>
+      <c r="AJ1" s="53">
+        <v>2017</v>
+      </c>
+      <c r="AK1" s="53">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>498</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>416</v>
+      </c>
+      <c r="E2">
+        <f>fiscal!E14</f>
+        <v>1778615</v>
+      </c>
+      <c r="F2">
+        <f>fiscal!F14</f>
+        <v>2113579</v>
+      </c>
+      <c r="G2">
+        <f>fiscal!G14</f>
+        <v>2068072</v>
+      </c>
+      <c r="H2">
+        <f>fiscal!H14</f>
+        <v>1933783</v>
+      </c>
+      <c r="I2">
+        <f>fiscal!I14</f>
+        <v>2140642</v>
+      </c>
+      <c r="J2">
+        <f>fiscal!J14</f>
+        <v>2137068</v>
+      </c>
+      <c r="K2">
+        <f>fiscal!K14</f>
+        <v>2609791</v>
+      </c>
+      <c r="L2">
+        <f>fiscal!L14</f>
+        <v>2763110</v>
+      </c>
+      <c r="M2">
+        <f>fiscal!M14</f>
+        <v>2883611</v>
+      </c>
+      <c r="N2">
+        <f>fiscal!N14</f>
+        <v>2898445</v>
+      </c>
+      <c r="O2">
+        <f>fiscal!O14</f>
+        <v>2784169</v>
+      </c>
+      <c r="P2">
+        <f>fiscal!P14</f>
+        <v>3130322</v>
+      </c>
+      <c r="Q2">
+        <f>fiscal!Q14</f>
+        <v>3335671</v>
+      </c>
+      <c r="R2">
+        <f>fiscal!R14</f>
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <f>fiscal!S14</f>
+        <v>3913525</v>
+      </c>
+      <c r="T2">
+        <f>fiscal!T14</f>
+        <v>4172171</v>
+      </c>
+      <c r="U2">
+        <f>fiscal!U14</f>
+        <v>3905342</v>
+      </c>
+      <c r="V2">
+        <f>fiscal!V14</f>
+        <v>3720700</v>
+      </c>
+      <c r="W2">
+        <f>fiscal!W14</f>
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <f>fiscal!X14</f>
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <f>fiscal!Y14</f>
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <f>fiscal!Z14</f>
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <f>fiscal!AA14</f>
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <f>fiscal!AB14</f>
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <f>fiscal!AC14</f>
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <f>fiscal!AD14</f>
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <f>fiscal!AE14</f>
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <f>fiscal!AF14</f>
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <f>fiscal!AG14</f>
+        <v>4603407</v>
+      </c>
+      <c r="AH2">
+        <f>fiscal!AH14</f>
+        <v>4729868</v>
+      </c>
+      <c r="AI2">
+        <f>fiscal!AI14</f>
+        <v>6272300</v>
+      </c>
+      <c r="AJ2">
+        <f>fiscal!AJ14</f>
+        <v>5999659</v>
+      </c>
+      <c r="AK2">
+        <f>fiscal!AK14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>500</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>416</v>
+      </c>
+      <c r="E3">
+        <f>fiscal!E24</f>
+        <v>1696241</v>
+      </c>
+      <c r="F3">
+        <f>fiscal!F24</f>
+        <v>1871351</v>
+      </c>
+      <c r="G3">
+        <f>fiscal!G24</f>
+        <v>1703219</v>
+      </c>
+      <c r="H3">
+        <f>fiscal!H24</f>
+        <v>1809633</v>
+      </c>
+      <c r="I3">
+        <f>fiscal!I24</f>
+        <v>1933544</v>
+      </c>
+      <c r="J3">
+        <f>fiscal!J24</f>
+        <v>1926227</v>
+      </c>
+      <c r="K3">
+        <f>fiscal!K24</f>
+        <v>2179187</v>
+      </c>
+      <c r="L3">
+        <f>fiscal!L24</f>
+        <v>2319900</v>
+      </c>
+      <c r="M3">
+        <f>fiscal!M24</f>
+        <v>2363453</v>
+      </c>
+      <c r="N3">
+        <f>fiscal!N24</f>
+        <v>2529855</v>
+      </c>
+      <c r="O3">
+        <f>fiscal!O24</f>
+        <v>2740037</v>
+      </c>
+      <c r="P3">
+        <f>fiscal!P24</f>
+        <v>2712589</v>
+      </c>
+      <c r="Q3">
+        <f>fiscal!Q24</f>
+        <v>3308434</v>
+      </c>
+      <c r="R3">
+        <f>fiscal!R24</f>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f>fiscal!S24</f>
+        <v>3053964</v>
+      </c>
+      <c r="T3">
+        <f>fiscal!T24</f>
+        <v>3305682</v>
+      </c>
+      <c r="U3">
+        <f>fiscal!U24</f>
+        <v>3038172</v>
+      </c>
+      <c r="V3">
+        <f>fiscal!V24</f>
+        <v>3010019</v>
+      </c>
+      <c r="W3">
+        <f>fiscal!W24</f>
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <f>fiscal!X24</f>
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <f>fiscal!Y24</f>
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <f>fiscal!Z24</f>
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <f>fiscal!AA24</f>
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <f>fiscal!AB24</f>
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <f>fiscal!AC24</f>
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <f>fiscal!AD24</f>
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <f>fiscal!AE24</f>
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <f>fiscal!AF24</f>
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <f>fiscal!AG24</f>
+        <v>3964294</v>
+      </c>
+      <c r="AH3">
+        <f>fiscal!AH24</f>
+        <v>4103609</v>
+      </c>
+      <c r="AI3">
+        <f>fiscal!AI24</f>
+        <v>4213288</v>
+      </c>
+      <c r="AJ3">
+        <f>fiscal!AJ24</f>
+        <v>4567790</v>
+      </c>
+      <c r="AK3">
+        <f>fiscal!AK24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>501</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>502</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>503</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>416</v>
+      </c>
+      <c r="E4" s="67">
+        <f>fiscal!E23</f>
+        <v>176265</v>
+      </c>
+      <c r="F4" s="67">
+        <f>fiscal!F23</f>
+        <v>193654</v>
+      </c>
+      <c r="G4" s="67">
+        <f>fiscal!G23</f>
+        <v>183060</v>
+      </c>
+      <c r="H4" s="67">
+        <f>fiscal!H23</f>
+        <v>186080</v>
+      </c>
+      <c r="I4" s="67">
+        <f>fiscal!I23</f>
+        <v>192593</v>
+      </c>
+      <c r="J4" s="67">
+        <f>fiscal!J23</f>
+        <v>205271</v>
+      </c>
+      <c r="K4" s="67">
+        <f>fiscal!K23</f>
+        <v>216225</v>
+      </c>
+      <c r="L4" s="67">
+        <f>fiscal!L23</f>
+        <v>229866</v>
+      </c>
+      <c r="M4" s="67">
+        <f>fiscal!M23</f>
+        <v>202336</v>
+      </c>
+      <c r="N4" s="67">
+        <f>fiscal!N23</f>
+        <v>218059</v>
+      </c>
+      <c r="O4" s="67">
+        <f>fiscal!O23</f>
+        <v>273666</v>
+      </c>
+      <c r="P4" s="67">
+        <f>fiscal!P23</f>
+        <v>282709</v>
+      </c>
+      <c r="Q4" s="67">
+        <f>fiscal!Q23</f>
+        <v>681019</v>
+      </c>
+      <c r="R4" s="67">
+        <f>fiscal!R23</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="67">
+        <f>fiscal!S23</f>
+        <v>303613</v>
+      </c>
+      <c r="T4" s="67">
+        <f>fiscal!T23</f>
+        <v>360848</v>
+      </c>
+      <c r="U4" s="67">
+        <f>fiscal!U23</f>
+        <v>404124</v>
+      </c>
+      <c r="V4" s="67">
+        <f>fiscal!V23</f>
+        <v>667617</v>
+      </c>
+      <c r="W4" s="67">
+        <f>fiscal!W23</f>
+        <v>0</v>
+      </c>
+      <c r="X4" s="67">
+        <f>fiscal!X23</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="67">
+        <f>fiscal!Y23</f>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="67">
+        <f>fiscal!Z23</f>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="67">
+        <f>fiscal!AA23</f>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="67">
+        <f>fiscal!AB23</f>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="67">
+        <f>fiscal!AC23</f>
+        <v>0</v>
+      </c>
+      <c r="AD4" s="67">
+        <f>fiscal!AD23</f>
+        <v>0</v>
+      </c>
+      <c r="AE4" s="67">
+        <f>fiscal!AE23</f>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="67">
+        <f>fiscal!AF23</f>
+        <v>0</v>
+      </c>
+      <c r="AG4" s="67">
+        <f>fiscal!AG23</f>
+        <v>652053</v>
+      </c>
+      <c r="AH4" s="67">
+        <f>fiscal!AH23</f>
+        <v>653969</v>
+      </c>
+      <c r="AI4" s="67">
+        <f>fiscal!AI23</f>
+        <v>793888</v>
+      </c>
+      <c r="AJ4" s="67">
+        <f>fiscal!AJ23</f>
+        <v>809179</v>
+      </c>
+      <c r="AK4" s="67">
+        <f>fiscal!AK23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>505</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>506</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>416</v>
+      </c>
+      <c r="E5">
+        <f>assets!E37</f>
+        <v>45000</v>
+      </c>
+      <c r="F5">
+        <f>assets!F37</f>
+        <v>100000</v>
+      </c>
+      <c r="G5">
+        <f>assets!G37</f>
+        <v>40000</v>
+      </c>
+      <c r="H5">
+        <f>assets!H37</f>
+        <v>45000</v>
+      </c>
+      <c r="I5">
+        <f>assets!I37</f>
+        <v>45000</v>
+      </c>
+      <c r="J5">
+        <f>assets!J37</f>
+        <v>50000</v>
+      </c>
+      <c r="K5">
+        <f>assets!K37</f>
+        <v>123941</v>
+      </c>
+      <c r="L5">
+        <f>assets!L37</f>
+        <v>134434</v>
+      </c>
+      <c r="M5">
+        <f>assets!M37</f>
+        <v>248502</v>
+      </c>
+      <c r="N5">
+        <f>assets!N37</f>
+        <v>265155</v>
+      </c>
+      <c r="O5">
+        <f>assets!O37</f>
+        <v>309440</v>
+      </c>
+      <c r="P5">
+        <f>assets!P37</f>
+        <v>366781</v>
+      </c>
+      <c r="Q5">
+        <f>assets!Q37</f>
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <f>assets!R37</f>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <f>assets!S37</f>
+        <v>372375</v>
+      </c>
+      <c r="T5">
+        <f>assets!T37</f>
+        <v>395877</v>
+      </c>
+      <c r="U5">
+        <f>assets!U37</f>
+        <v>601665</v>
+      </c>
+      <c r="V5">
+        <f>assets!V37</f>
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <f>assets!W37</f>
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <f>assets!X37</f>
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <f>assets!Y37</f>
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <f>assets!Z37</f>
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <f>assets!AA37</f>
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <f>assets!AB37</f>
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <f>assets!AC37</f>
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <f>assets!AD37</f>
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <f>assets!AE37</f>
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <f>assets!AF37</f>
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <f>assets!AG37</f>
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <f>assets!AH37</f>
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <f>assets!AI37</f>
+        <v>1024434</v>
+      </c>
+      <c r="AJ5">
+        <f>assets!AJ37</f>
+        <v>185000</v>
+      </c>
+      <c r="AK5">
+        <f>assets!AK37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>508</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>507</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>506</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>416</v>
+      </c>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="56"/>
+      <c r="V6" s="56"/>
+      <c r="W6" s="56"/>
+      <c r="X6" s="56"/>
+      <c r="Y6" s="56"/>
+      <c r="Z6" s="56"/>
+      <c r="AA6" s="56"/>
+      <c r="AB6" s="56"/>
+      <c r="AC6" s="56"/>
+      <c r="AD6" s="56"/>
+      <c r="AE6" s="56"/>
+      <c r="AF6" s="56"/>
+      <c r="AG6" s="56"/>
+      <c r="AH6" s="56"/>
+      <c r="AI6" s="56"/>
+      <c r="AJ6" s="56"/>
+      <c r="AK6" s="56"/>
+    </row>
+    <row r="7" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>510</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>509</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>511</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>416</v>
+      </c>
+      <c r="E7" s="67">
+        <f>assets!E13-assets!E8-assets!E7</f>
+        <v>990379</v>
+      </c>
+      <c r="F7" s="67">
+        <f>assets!F13-assets!F8-assets!F7</f>
+        <v>1463820</v>
+      </c>
+      <c r="G7" s="67">
+        <f>assets!G13-assets!G8-assets!G7</f>
+        <v>1794871</v>
+      </c>
+      <c r="H7" s="67">
+        <f>assets!H13-assets!H8-assets!H7</f>
+        <v>1760645</v>
+      </c>
+      <c r="I7" s="67">
+        <f>assets!I13-assets!I8-assets!I7</f>
+        <v>1719113</v>
+      </c>
+      <c r="J7" s="67">
+        <f>assets!J13-assets!J8-assets!J7</f>
+        <v>1070586</v>
+      </c>
+      <c r="K7" s="67">
+        <f>assets!K13-assets!K8-assets!K7</f>
+        <v>1183948</v>
+      </c>
+      <c r="L7" s="67">
+        <f>assets!L13-assets!L8-assets!L7</f>
+        <v>1564149</v>
+      </c>
+      <c r="M7" s="67">
+        <f>assets!M13-assets!M8-assets!M7</f>
+        <v>1923920</v>
+      </c>
+      <c r="N7" s="67">
+        <f>assets!N13-assets!N8-assets!N7</f>
+        <v>1694844</v>
+      </c>
+      <c r="O7" s="67">
+        <f>assets!O13-assets!O8-assets!O7</f>
+        <v>1372312</v>
+      </c>
+      <c r="P7" s="67">
+        <f>assets!P13-assets!P8-assets!P7</f>
+        <v>1368630</v>
+      </c>
+      <c r="Q7" s="67">
+        <f>assets!Q13-assets!Q8-assets!Q7</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="67">
+        <f>assets!R13-assets!R8-assets!R7</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="67">
+        <f>assets!S13-assets!S8-assets!S7</f>
+        <v>2340304</v>
+      </c>
+      <c r="T7" s="67">
+        <f>assets!T13-assets!T8-assets!T7</f>
+        <v>2536198</v>
+      </c>
+      <c r="U7" s="67">
+        <f>assets!U13-assets!U8-assets!U7</f>
+        <v>2152606</v>
+      </c>
+      <c r="V7" s="67">
+        <f>assets!V13-assets!V8-assets!V7</f>
+        <v>0</v>
+      </c>
+      <c r="W7" s="67">
+        <f>assets!W13-assets!W8-assets!W7</f>
+        <v>0</v>
+      </c>
+      <c r="X7" s="67">
+        <f>assets!X13-assets!X8-assets!X7</f>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="67">
+        <f>assets!Y13-assets!Y8-assets!Y7</f>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="67">
+        <f>assets!Z13-assets!Z8-assets!Z7</f>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="67">
+        <f>assets!AA13-assets!AA8-assets!AA7</f>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="67">
+        <f>assets!AB13-assets!AB8-assets!AB7</f>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="67">
+        <f>assets!AC13-assets!AC8-assets!AC7</f>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="67">
+        <f>assets!AD13-assets!AD8-assets!AD7</f>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="67">
+        <f>assets!AE13-assets!AE8-assets!AE7</f>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="67">
+        <f>assets!AF13-assets!AF8-assets!AF7</f>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="67">
+        <f>assets!AG13-assets!AG8-assets!AG7</f>
+        <v>0</v>
+      </c>
+      <c r="AH7" s="67">
+        <f>assets!AH13-assets!AH8-assets!AH7</f>
+        <v>0</v>
+      </c>
+      <c r="AI7" s="67">
+        <f>assets!AI13-assets!AI8-assets!AI7</f>
+        <v>2945124</v>
+      </c>
+      <c r="AJ7" s="67">
+        <f>assets!AJ13-assets!AJ8-assets!AJ7</f>
+        <v>3436317</v>
+      </c>
+      <c r="AK7" s="67">
+        <f>assets!AK13-assets!AK8-assets!AK7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>513</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>512</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>514</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>416</v>
+      </c>
+      <c r="E8" s="67">
+        <f>assets!E45-assets!E35</f>
+        <v>642293</v>
+      </c>
+      <c r="F8" s="67">
+        <f>assets!F45-assets!F35</f>
+        <v>981308</v>
+      </c>
+      <c r="G8" s="67">
+        <f>assets!G45-assets!G35</f>
+        <v>839226</v>
+      </c>
+      <c r="H8" s="67">
+        <f>assets!H45-assets!H35</f>
+        <v>818253</v>
+      </c>
+      <c r="I8" s="67">
+        <f>assets!I45-assets!I35</f>
+        <v>804948</v>
+      </c>
+      <c r="J8" s="67">
+        <f>assets!J45-assets!J35</f>
+        <v>168718</v>
+      </c>
+      <c r="K8" s="67">
+        <f>assets!K45-assets!K35</f>
+        <v>555992</v>
+      </c>
+      <c r="L8" s="67">
+        <f>assets!L45-assets!L35</f>
+        <v>417468</v>
+      </c>
+      <c r="M8" s="67">
+        <f>assets!M45-assets!M35</f>
+        <v>631494</v>
+      </c>
+      <c r="N8" s="67">
+        <f>assets!N45-assets!N35</f>
+        <v>774065</v>
+      </c>
+      <c r="O8" s="67">
+        <f>assets!O45-assets!O35</f>
+        <v>450089</v>
+      </c>
+      <c r="P8" s="67">
+        <f>assets!P45-assets!P35</f>
+        <v>547414</v>
+      </c>
+      <c r="Q8" s="67">
+        <f>assets!Q45-assets!Q35</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="67">
+        <f>assets!R45-assets!R35</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="67">
+        <f>assets!S45-assets!S35</f>
+        <v>457226</v>
+      </c>
+      <c r="T8" s="67">
+        <f>assets!T45-assets!T35</f>
+        <v>929404</v>
+      </c>
+      <c r="U8" s="67">
+        <f>assets!U45-assets!U35</f>
+        <v>758391</v>
+      </c>
+      <c r="V8" s="67">
+        <f>assets!V45-assets!V35</f>
+        <v>0</v>
+      </c>
+      <c r="W8" s="67">
+        <f>assets!W45-assets!W35</f>
+        <v>0</v>
+      </c>
+      <c r="X8" s="67">
+        <f>assets!X45-assets!X35</f>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="67">
+        <f>assets!Y45-assets!Y35</f>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="67">
+        <f>assets!Z45-assets!Z35</f>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="67">
+        <f>assets!AA45-assets!AA35</f>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="67">
+        <f>assets!AB45-assets!AB35</f>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="67">
+        <f>assets!AC45-assets!AC35</f>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="67">
+        <f>assets!AD45-assets!AD35</f>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="67">
+        <f>assets!AE45-assets!AE35</f>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="67">
+        <f>assets!AF45-assets!AF35</f>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="67">
+        <f>assets!AG45-assets!AG35</f>
+        <v>0</v>
+      </c>
+      <c r="AH8" s="67">
+        <f>assets!AH45-assets!AH35</f>
+        <v>0</v>
+      </c>
+      <c r="AI8" s="67">
+        <f>assets!AI45-assets!AI35</f>
+        <v>1193029</v>
+      </c>
+      <c r="AJ8" s="67">
+        <f>assets!AJ45-assets!AJ35</f>
+        <v>614159</v>
+      </c>
+      <c r="AK8" s="67">
+        <f>assets!AK45-assets!AK35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>516</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>515</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>517</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>416</v>
+      </c>
+      <c r="E9">
+        <f>assets!E3+assets!E4</f>
+        <v>202275</v>
+      </c>
+      <c r="F9">
+        <f>assets!F3+assets!F4</f>
+        <v>396328</v>
+      </c>
+      <c r="G9">
+        <f>assets!G3+assets!G4</f>
+        <v>600452</v>
+      </c>
+      <c r="H9">
+        <f>assets!H3+assets!H4</f>
+        <v>548823</v>
+      </c>
+      <c r="I9">
+        <f>assets!I3+assets!I4</f>
+        <v>431543</v>
+      </c>
+      <c r="J9">
+        <f>assets!J3+assets!J4</f>
+        <v>332963</v>
+      </c>
+      <c r="K9">
+        <f>assets!K3+assets!K4</f>
+        <v>591927</v>
+      </c>
+      <c r="L9">
+        <f>assets!L3+assets!L4</f>
+        <v>1000659</v>
+      </c>
+      <c r="M9">
+        <f>assets!M3+assets!M4</f>
+        <v>1385602</v>
+      </c>
+      <c r="N9">
+        <f>assets!N3+assets!N4</f>
+        <v>1180750</v>
+      </c>
+      <c r="O9">
+        <f>assets!O3+assets!O4</f>
+        <v>867867</v>
+      </c>
+      <c r="P9">
+        <f>assets!P3+assets!P4</f>
+        <v>779524</v>
+      </c>
+      <c r="Q9">
+        <f>assets!Q3+assets!Q4</f>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f>assets!R3+assets!R4</f>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f>assets!S3+assets!S4</f>
+        <v>1556305</v>
+      </c>
+      <c r="T9">
+        <f>assets!T3+assets!T4</f>
+        <v>1568485</v>
+      </c>
+      <c r="U9">
+        <f>assets!U3+assets!U4</f>
+        <v>1170261</v>
+      </c>
+      <c r="V9">
+        <f>assets!V3+assets!V4</f>
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <f>assets!W3+assets!W4</f>
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <f>assets!X3+assets!X4</f>
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <f>assets!Y3+assets!Y4</f>
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <f>assets!Z3+assets!Z4</f>
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <f>assets!AA3+assets!AA4</f>
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <f>assets!AB3+assets!AB4</f>
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <f>assets!AC3+assets!AC4</f>
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <f>assets!AD3+assets!AD4</f>
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <f>assets!AE3+assets!AE4</f>
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <f>assets!AF3+assets!AF4</f>
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <f>assets!AG3+assets!AG4</f>
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <f>assets!AH3+assets!AH4</f>
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <f>assets!AI3+assets!AI4</f>
+        <v>1168842</v>
+      </c>
+      <c r="AJ9">
+        <f>assets!AJ3+assets!AJ4</f>
+        <v>1978884</v>
+      </c>
+      <c r="AK9">
+        <f>assets!AK3+assets!AK4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>519</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>518</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>520</v>
+      </c>
+      <c r="D10" s="55" t="s">
+        <v>416</v>
+      </c>
+      <c r="E10" s="67">
+        <f>-assets!E23</f>
+        <v>3703924</v>
+      </c>
+      <c r="F10" s="67">
+        <f>-assets!F23</f>
+        <v>3897578</v>
+      </c>
+      <c r="G10" s="67">
+        <f>-assets!G23</f>
+        <v>4080639</v>
+      </c>
+      <c r="H10" s="67">
+        <f>-assets!H23</f>
+        <v>4266718</v>
+      </c>
+      <c r="I10" s="67">
+        <f>-assets!I23</f>
+        <v>4459311</v>
+      </c>
+      <c r="J10" s="67">
+        <f>-assets!J23</f>
+        <v>4664582</v>
+      </c>
+      <c r="K10" s="67">
+        <f>-assets!K23</f>
+        <v>4880807</v>
+      </c>
+      <c r="L10" s="67">
+        <f>-assets!L23</f>
+        <v>5110672</v>
+      </c>
+      <c r="M10" s="67">
+        <f>-assets!M23</f>
+        <v>5311855</v>
+      </c>
+      <c r="N10" s="67">
+        <f>-assets!N23</f>
+        <v>5529914</v>
+      </c>
+      <c r="O10" s="67">
+        <f>-assets!O23</f>
+        <v>5803581</v>
+      </c>
+      <c r="P10" s="67">
+        <f>-assets!P23</f>
+        <v>6086290</v>
+      </c>
+      <c r="Q10" s="67">
+        <f>-assets!Q23</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="67">
+        <f>-assets!R23</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="67">
+        <f>-assets!S23</f>
+        <v>6980997</v>
+      </c>
+      <c r="T10" s="67">
+        <f>-assets!T23</f>
+        <v>7341845</v>
+      </c>
+      <c r="U10" s="67">
+        <f>-assets!U23</f>
+        <v>7745969</v>
+      </c>
+      <c r="V10" s="67">
+        <f>-assets!V23</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="67">
+        <f>-assets!W23</f>
+        <v>0</v>
+      </c>
+      <c r="X10" s="67">
+        <f>-assets!X23</f>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="67">
+        <f>-assets!Y23</f>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="67">
+        <f>-assets!Z23</f>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="67">
+        <f>-assets!AA23</f>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="67">
+        <f>-assets!AB23</f>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="67">
+        <f>-assets!AC23</f>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="67">
+        <f>-assets!AD23</f>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="67">
+        <f>-assets!AE23</f>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="67">
+        <f>-assets!AF23</f>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="67">
+        <f>-assets!AG23</f>
+        <v>0</v>
+      </c>
+      <c r="AH10" s="67">
+        <f>-assets!AH23</f>
+        <v>0</v>
+      </c>
+      <c r="AI10" s="67">
+        <f>-assets!AI23</f>
+        <v>48507064</v>
+      </c>
+      <c r="AJ10" s="67">
+        <f>-assets!AJ23</f>
+        <v>49316243</v>
+      </c>
+      <c r="AK10" s="67">
+        <f>-assets!AK23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>522</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>521</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>523</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>416</v>
+      </c>
+      <c r="E11" s="68">
+        <f>assets!E21</f>
+        <v>9415070</v>
+      </c>
+      <c r="F11" s="68">
+        <f>assets!F21</f>
+        <v>9640524</v>
+      </c>
+      <c r="G11" s="68">
+        <f>assets!G21</f>
+        <v>9897142</v>
+      </c>
+      <c r="H11" s="68">
+        <f>assets!H21</f>
+        <v>9928340</v>
+      </c>
+      <c r="I11" s="68">
+        <f>assets!I21</f>
+        <v>10080698</v>
+      </c>
+      <c r="J11" s="68">
+        <f>assets!J21</f>
+        <v>10944937</v>
+      </c>
+      <c r="K11" s="68">
+        <f>assets!K21</f>
+        <v>11011573</v>
+      </c>
+      <c r="L11" s="68">
+        <f>assets!L21</f>
+        <v>12213101</v>
+      </c>
+      <c r="M11" s="68">
+        <f>assets!M21</f>
+        <v>12329447</v>
+      </c>
+      <c r="N11" s="68">
+        <f>assets!N21</f>
+        <v>14204332</v>
+      </c>
+      <c r="O11" s="68">
+        <f>assets!O21</f>
+        <v>16643067</v>
+      </c>
+      <c r="P11" s="68">
+        <f>assets!P21</f>
+        <v>16738117</v>
+      </c>
+      <c r="Q11" s="68">
+        <f>assets!Q21</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="68">
+        <f>assets!R21</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="68">
+        <f>assets!S21</f>
+        <v>20801038</v>
+      </c>
+      <c r="T11" s="68">
+        <f>assets!T21</f>
+        <v>23394738</v>
+      </c>
+      <c r="U11" s="68">
+        <f>assets!U21</f>
+        <v>24222549</v>
+      </c>
+      <c r="V11" s="68">
+        <f>assets!V21</f>
+        <v>0</v>
+      </c>
+      <c r="W11" s="68">
+        <f>assets!W21</f>
+        <v>0</v>
+      </c>
+      <c r="X11" s="68">
+        <f>assets!X21</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="68">
+        <f>assets!Y21</f>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="68">
+        <f>assets!Z21</f>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="68">
+        <f>assets!AA21</f>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="68">
+        <f>assets!AB21</f>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="68">
+        <f>assets!AC21</f>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="68">
+        <f>assets!AD21</f>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="68">
+        <f>assets!AE21</f>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="68">
+        <f>assets!AF21</f>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="68">
+        <f>assets!AG21</f>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="68">
+        <f>assets!AH21</f>
+        <v>0</v>
+      </c>
+      <c r="AI11" s="68">
+        <f>assets!AI21</f>
+        <v>59274860</v>
+      </c>
+      <c r="AJ11" s="68">
+        <f>assets!AJ21</f>
+        <v>60131778</v>
+      </c>
+      <c r="AK11" s="68">
+        <f>assets!AK21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>524</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="E12">
+        <f>assets!E32</f>
+        <v>9726068</v>
+      </c>
+      <c r="F12">
+        <f>assets!F32</f>
+        <v>12921082</v>
+      </c>
+      <c r="G12">
+        <f>assets!G32</f>
+        <v>8500716</v>
+      </c>
+      <c r="H12">
+        <f>assets!H32</f>
+        <v>9118647</v>
+      </c>
+      <c r="I12">
+        <f>assets!I32</f>
+        <v>9120032</v>
+      </c>
+      <c r="J12">
+        <f>assets!J32</f>
+        <v>8462222</v>
+      </c>
+      <c r="K12">
+        <f>assets!K32</f>
+        <v>12161554</v>
+      </c>
+      <c r="L12">
+        <f>assets!L32</f>
+        <v>12376074</v>
+      </c>
+      <c r="M12">
+        <f>assets!M32</f>
+        <v>13120688</v>
+      </c>
+      <c r="N12">
+        <f>assets!N32</f>
+        <v>14381248</v>
+      </c>
+      <c r="O12">
+        <f>assets!O32</f>
+        <v>13963726</v>
+      </c>
+      <c r="P12">
+        <f>assets!P32</f>
+        <v>13745538</v>
+      </c>
+      <c r="Q12">
+        <f>assets!Q32</f>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f>assets!R32</f>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f>assets!S32</f>
+        <v>17745993</v>
+      </c>
+      <c r="T12">
+        <f>assets!T32</f>
+        <v>20176135</v>
+      </c>
+      <c r="U12">
+        <f>assets!U32</f>
+        <v>20168410</v>
+      </c>
+      <c r="V12">
+        <f>assets!V32</f>
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <f>assets!W32</f>
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <f>assets!X32</f>
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <f>assets!Y32</f>
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <f>assets!Z32</f>
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <f>assets!AA32</f>
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <f>assets!AB32</f>
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <f>assets!AC32</f>
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <f>assets!AD32</f>
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <f>assets!AE32</f>
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <f>assets!AF32</f>
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <f>assets!AG32</f>
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <f>assets!AH32</f>
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <f>assets!AI32</f>
+        <v>15033483</v>
+      </c>
+      <c r="AJ12">
+        <f>assets!AJ32</f>
+        <v>16029150</v>
+      </c>
+      <c r="AK12">
+        <f>assets!AK32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>525</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="E13">
+        <f>assets!E56</f>
+        <v>4749432</v>
+      </c>
+      <c r="F13">
+        <f>assets!F56</f>
+        <v>7938828</v>
+      </c>
+      <c r="G13">
+        <f>assets!G56</f>
+        <v>3756498</v>
+      </c>
+      <c r="H13">
+        <f>assets!H56</f>
+        <v>4443223</v>
+      </c>
+      <c r="I13">
+        <f>assets!I56</f>
+        <v>4390455</v>
+      </c>
+      <c r="J13">
+        <f>assets!J56</f>
+        <v>3707536</v>
+      </c>
+      <c r="K13">
+        <f>assets!K56</f>
+        <v>7372900</v>
+      </c>
+      <c r="L13">
+        <f>assets!L56</f>
+        <v>7505688</v>
+      </c>
+      <c r="M13">
+        <f>assets!M56</f>
+        <v>7662194</v>
+      </c>
+      <c r="N13">
+        <f>assets!N56</f>
+        <v>8920897</v>
+      </c>
+      <c r="O13">
+        <f>assets!O56</f>
+        <v>8968149</v>
+      </c>
+      <c r="P13">
+        <f>assets!P56</f>
+        <v>8784211</v>
+      </c>
+      <c r="Q13">
+        <f>assets!Q56</f>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f>assets!R56</f>
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <f>assets!S56</f>
+        <v>10152427</v>
+      </c>
+      <c r="T13">
+        <f>assets!T56</f>
+        <v>12285881</v>
+      </c>
+      <c r="U13">
+        <f>assets!U56</f>
+        <v>11986441</v>
+      </c>
+      <c r="V13">
+        <f>assets!V56</f>
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <f>assets!W56</f>
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <f>assets!X56</f>
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <f>assets!Y56</f>
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <f>assets!Z56</f>
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <f>assets!AA56</f>
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <f>assets!AB56</f>
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <f>assets!AC56</f>
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <f>assets!AD56</f>
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <f>assets!AE56</f>
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <f>assets!AF56</f>
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <f>assets!AG56</f>
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <f>assets!AH56</f>
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <f>assets!AI56</f>
+        <v>6248249</v>
+      </c>
+      <c r="AJ13">
+        <f>assets!AJ56</f>
+        <v>6179508</v>
+      </c>
+      <c r="AK13">
+        <f>assets!AK56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>527</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>526</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>528</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>416</v>
+      </c>
+      <c r="E14" s="68" t="e">
+        <f>E11-D11+E4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F14" s="68">
+        <f t="shared" ref="F14:AK14" si="0">F11-E11+F4</f>
+        <v>419108</v>
+      </c>
+      <c r="G14" s="68">
+        <f t="shared" si="0"/>
+        <v>439678</v>
+      </c>
+      <c r="H14" s="68">
+        <f t="shared" si="0"/>
+        <v>217278</v>
+      </c>
+      <c r="I14" s="68">
+        <f t="shared" si="0"/>
+        <v>344951</v>
+      </c>
+      <c r="J14" s="68">
+        <f t="shared" si="0"/>
+        <v>1069510</v>
+      </c>
+      <c r="K14" s="68">
+        <f t="shared" si="0"/>
+        <v>282861</v>
+      </c>
+      <c r="L14" s="68">
+        <f t="shared" si="0"/>
+        <v>1431394</v>
+      </c>
+      <c r="M14" s="68">
+        <f t="shared" si="0"/>
+        <v>318682</v>
+      </c>
+      <c r="N14" s="68">
+        <f t="shared" si="0"/>
+        <v>2092944</v>
+      </c>
+      <c r="O14" s="68">
+        <f t="shared" si="0"/>
+        <v>2712401</v>
+      </c>
+      <c r="P14" s="68">
+        <f t="shared" si="0"/>
+        <v>377759</v>
+      </c>
+      <c r="Q14" s="68">
+        <f t="shared" si="0"/>
+        <v>-16057098</v>
+      </c>
+      <c r="R14" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="68">
+        <f t="shared" si="0"/>
+        <v>21104651</v>
+      </c>
+      <c r="T14" s="68">
+        <f t="shared" si="0"/>
+        <v>2954548</v>
+      </c>
+      <c r="U14" s="68">
+        <f t="shared" si="0"/>
+        <v>1231935</v>
+      </c>
+      <c r="V14" s="68">
+        <f t="shared" si="0"/>
+        <v>-23554932</v>
+      </c>
+      <c r="W14" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="68">
+        <f t="shared" si="0"/>
+        <v>652053</v>
+      </c>
+      <c r="AH14" s="68">
+        <f t="shared" si="0"/>
+        <v>653969</v>
+      </c>
+      <c r="AI14" s="68">
+        <f t="shared" si="0"/>
+        <v>60068748</v>
+      </c>
+      <c r="AJ14" s="68">
+        <f t="shared" si="0"/>
+        <v>1666097</v>
+      </c>
+      <c r="AK14" s="68">
+        <f t="shared" si="0"/>
+        <v>-60131778</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="57" t="s">
+        <v>529</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>530</v>
+      </c>
+      <c r="D16" s="58"/>
+    </row>
+    <row r="17" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>531</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>532</v>
+      </c>
+      <c r="D17" s="59"/>
+      <c r="E17" s="60">
+        <f>IFERROR(E2/E3, "")</f>
+        <v>1.0485626747614283</v>
+      </c>
+      <c r="F17" s="60">
+        <f>IFERROR(F2/F3, "")</f>
+        <v>1.1294401745049432</v>
+      </c>
+      <c r="G17" s="60">
+        <f>IFERROR(G2/G3, "")</f>
+        <v>1.2142137916498112</v>
+      </c>
+      <c r="H17" s="60">
+        <f>IFERROR(H2/H3, "")</f>
+        <v>1.0686050707519148</v>
+      </c>
+      <c r="I17" s="60">
+        <f>IFERROR(I2/I3, "")</f>
+        <v>1.1071079840955262</v>
+      </c>
+      <c r="J17" s="60">
+        <f>IFERROR(J2/J3, "")</f>
+        <v>1.1094580233793836</v>
+      </c>
+      <c r="K17" s="60">
+        <f>IFERROR(K2/K3, "")</f>
+        <v>1.197598462178785</v>
+      </c>
+      <c r="L17" s="60">
+        <f>IFERROR(L2/L3, "")</f>
+        <v>1.1910470278891332</v>
+      </c>
+      <c r="M17" s="60">
+        <f>IFERROR(M2/M3, "")</f>
+        <v>1.2200839195871465</v>
+      </c>
+      <c r="N17" s="60">
+        <f>IFERROR(N2/N3, "")</f>
+        <v>1.1456960972071522</v>
+      </c>
+      <c r="O17" s="60">
+        <f>IFERROR(O2/O3, "")</f>
+        <v>1.0161063518485334</v>
+      </c>
+      <c r="P17" s="60">
+        <f>IFERROR(P2/P3, "")</f>
+        <v>1.1539978964745488</v>
+      </c>
+      <c r="Q17" s="60">
+        <f>IFERROR(Q2/Q3, "")</f>
+        <v>1.0082325958444387</v>
+      </c>
+      <c r="R17" s="60" t="str">
+        <f>IFERROR(R2/R3, "")</f>
+        <v/>
+      </c>
+      <c r="S17" s="60">
+        <f>IFERROR(S2/S3, "")</f>
+        <v>1.2814574762505386</v>
+      </c>
+      <c r="T17" s="60">
+        <f>IFERROR(T2/T3, "")</f>
+        <v>1.2621210993676948</v>
+      </c>
+      <c r="U17" s="60">
+        <f>IFERROR(U2/U3, "")</f>
+        <v>1.2854249199847803</v>
+      </c>
+      <c r="V17" s="60">
+        <f>IFERROR(V2/V3, "")</f>
+        <v>1.236105154153512</v>
+      </c>
+      <c r="W17" s="60" t="str">
+        <f>IFERROR(W2/W3, "")</f>
+        <v/>
+      </c>
+      <c r="X17" s="60" t="str">
+        <f>IFERROR(X2/X3, "")</f>
+        <v/>
+      </c>
+      <c r="Y17" s="60" t="str">
+        <f>IFERROR(Y2/Y3, "")</f>
+        <v/>
+      </c>
+      <c r="Z17" s="60" t="str">
+        <f>IFERROR(Z2/Z3, "")</f>
+        <v/>
+      </c>
+      <c r="AA17" s="60" t="str">
+        <f>IFERROR(AA2/AA3, "")</f>
+        <v/>
+      </c>
+      <c r="AB17" s="60" t="str">
+        <f>IFERROR(AB2/AB3, "")</f>
+        <v/>
+      </c>
+      <c r="AC17" s="60" t="str">
+        <f>IFERROR(AC2/AC3, "")</f>
+        <v/>
+      </c>
+      <c r="AD17" s="60" t="str">
+        <f>IFERROR(AD2/AD3, "")</f>
+        <v/>
+      </c>
+      <c r="AE17" s="60" t="str">
+        <f>IFERROR(AE2/AE3, "")</f>
+        <v/>
+      </c>
+      <c r="AF17" s="60" t="str">
+        <f>IFERROR(AF2/AF3, "")</f>
+        <v/>
+      </c>
+      <c r="AG17" s="60">
+        <f>IFERROR(AG2/AG3, "")</f>
+        <v>1.161217356734894</v>
+      </c>
+      <c r="AH17" s="60">
+        <f>IFERROR(AH2/AH3, "")</f>
+        <v>1.1526117619880452</v>
+      </c>
+      <c r="AI17" s="60">
+        <f>IFERROR(AI2/AI3, "")</f>
+        <v>1.488694815070795</v>
+      </c>
+      <c r="AJ17" s="60">
+        <f>IFERROR(AJ2/AJ3, "")</f>
+        <v>1.313470846952246</v>
+      </c>
+      <c r="AK17" s="60" t="str">
+        <f>IFERROR(AK2/AK3, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>533</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>534</v>
+      </c>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60">
+        <f>IFERROR(IF(E4="","",E2/(E3-E4)), "")</f>
+        <v>1.1701599235777407</v>
+      </c>
+      <c r="F18" s="60">
+        <f>IFERROR(IF(F4="","",F2/(F3-F4)), "")</f>
+        <v>1.2598097272630278</v>
+      </c>
+      <c r="G18" s="60">
+        <f>IFERROR(IF(G4="","",G2/(G3-G4)), "")</f>
+        <v>1.360431375928439</v>
+      </c>
+      <c r="H18" s="60">
+        <f>IFERROR(IF(H4="","",H2/(H3-H4)), "")</f>
+        <v>1.1910809194402647</v>
+      </c>
+      <c r="I18" s="60">
+        <f>IFERROR(IF(I4="","",I2/(I3-I4)), "")</f>
+        <v>1.2295819928303553</v>
+      </c>
+      <c r="J18" s="60">
+        <f>IFERROR(IF(J4="","",J2/(J3-J4)), "")</f>
+        <v>1.2417911904778507</v>
+      </c>
+      <c r="K18" s="60">
+        <f>IFERROR(IF(K4="","",K2/(K3-K4)), "")</f>
+        <v>1.3295168220271203</v>
+      </c>
+      <c r="L18" s="60">
+        <f>IFERROR(IF(L4="","",L2/(L3-L4)), "")</f>
+        <v>1.3220406940748333</v>
+      </c>
+      <c r="M18" s="60">
+        <f>IFERROR(IF(M4="","",M2/(M3-M4)), "")</f>
+        <v>1.3343150787301197</v>
+      </c>
+      <c r="N18" s="60">
+        <f>IFERROR(IF(N4="","",N2/(N3-N4)), "")</f>
+        <v>1.2537633078351205</v>
+      </c>
+      <c r="O18" s="60">
+        <f>IFERROR(IF(O4="","",O2/(O3-O4)), "")</f>
+        <v>1.1288524719111601</v>
+      </c>
+      <c r="P18" s="60">
+        <f>IFERROR(IF(P4="","",P2/(P3-P4)), "")</f>
+        <v>1.2882619717846149</v>
+      </c>
+      <c r="Q18" s="60">
+        <f>IFERROR(IF(Q4="","",Q2/(Q3-Q4)), "")</f>
+        <v>1.2695638108178571</v>
+      </c>
+      <c r="R18" s="60" t="str">
+        <f>IFERROR(IF(R4="","",R2/(R3-R4)), "")</f>
+        <v/>
+      </c>
+      <c r="S18" s="60">
+        <f>IFERROR(IF(S4="","",S2/(S3-S4)), "")</f>
+        <v>1.4229183838717312</v>
+      </c>
+      <c r="T18" s="60">
+        <f>IFERROR(IF(T4="","",T2/(T3-T4)), "")</f>
+        <v>1.416776293672241</v>
+      </c>
+      <c r="U18" s="60">
+        <f>IFERROR(IF(U4="","",U2/(U3-U4)), "")</f>
+        <v>1.4826388888888888</v>
+      </c>
+      <c r="V18" s="60">
+        <f>IFERROR(IF(V4="","",V2/(V3-V4)), "")</f>
+        <v>1.5884122366698799</v>
+      </c>
+      <c r="W18" s="60" t="str">
+        <f>IFERROR(IF(W4="","",W2/(W3-W4)), "")</f>
+        <v/>
+      </c>
+      <c r="X18" s="60" t="str">
+        <f>IFERROR(IF(X4="","",X2/(X3-X4)), "")</f>
+        <v/>
+      </c>
+      <c r="Y18" s="60" t="str">
+        <f>IFERROR(IF(Y4="","",Y2/(Y3-Y4)), "")</f>
+        <v/>
+      </c>
+      <c r="Z18" s="60" t="str">
+        <f>IFERROR(IF(Z4="","",Z2/(Z3-Z4)), "")</f>
+        <v/>
+      </c>
+      <c r="AA18" s="60" t="str">
+        <f>IFERROR(IF(AA4="","",AA2/(AA3-AA4)), "")</f>
+        <v/>
+      </c>
+      <c r="AB18" s="60" t="str">
+        <f>IFERROR(IF(AB4="","",AB2/(AB3-AB4)), "")</f>
+        <v/>
+      </c>
+      <c r="AC18" s="60" t="str">
+        <f>IFERROR(IF(AC4="","",AC2/(AC3-AC4)), "")</f>
+        <v/>
+      </c>
+      <c r="AD18" s="60" t="str">
+        <f>IFERROR(IF(AD4="","",AD2/(AD3-AD4)), "")</f>
+        <v/>
+      </c>
+      <c r="AE18" s="60" t="str">
+        <f>IFERROR(IF(AE4="","",AE2/(AE3-AE4)), "")</f>
+        <v/>
+      </c>
+      <c r="AF18" s="60" t="str">
+        <f>IFERROR(IF(AF4="","",AF2/(AF3-AF4)), "")</f>
+        <v/>
+      </c>
+      <c r="AG18" s="60">
+        <f>IFERROR(IF(AG4="","",AG2/(AG3-AG4)), "")</f>
+        <v>1.3898164414968597</v>
+      </c>
+      <c r="AH18" s="60">
+        <f>IFERROR(IF(AH4="","",AH2/(AH3-AH4)), "")</f>
+        <v>1.3711193052028618</v>
+      </c>
+      <c r="AI18" s="60">
+        <f>IFERROR(IF(AI4="","",AI2/(AI3-AI4)), "")</f>
+        <v>1.8343276598233609</v>
+      </c>
+      <c r="AJ18" s="60">
+        <f>IFERROR(IF(AJ4="","",AJ2/(AJ3-AJ4)), "")</f>
+        <v>1.5962436655455965</v>
+      </c>
+      <c r="AK18" s="60" t="str">
+        <f>IFERROR(IF(AK4="","",AK2/(AK3-AK4)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>535</v>
+      </c>
+      <c r="C19" s="61" t="s">
+        <v>553</v>
+      </c>
+      <c r="D19" s="61"/>
+      <c r="E19" s="60" t="str">
+        <f>IF(E4="","",IF(E5="","",IF(E6="","",(E2-E3+E4)/(E5+E6))))</f>
+        <v/>
+      </c>
+      <c r="F19" s="60" t="str">
+        <f>IF(F4="","",IF(F5="","",IF(F6="","",(F2-F3+F4)/(F5+F6))))</f>
+        <v/>
+      </c>
+      <c r="G19" s="60" t="str">
+        <f>IF(G4="","",IF(G5="","",IF(G6="","",(G2-G3+G4)/(G5+G6))))</f>
+        <v/>
+      </c>
+      <c r="H19" s="60" t="str">
+        <f>IF(H4="","",IF(H5="","",IF(H6="","",(H2-H3+H4)/(H5+H6))))</f>
+        <v/>
+      </c>
+      <c r="I19" s="60" t="str">
+        <f>IF(I4="","",IF(I5="","",IF(I6="","",(I2-I3+I4)/(I5+I6))))</f>
+        <v/>
+      </c>
+      <c r="J19" s="60" t="str">
+        <f>IF(J4="","",IF(J5="","",IF(J6="","",(J2-J3+J4)/(J5+J6))))</f>
+        <v/>
+      </c>
+      <c r="K19" s="60" t="str">
+        <f>IF(K4="","",IF(K5="","",IF(K6="","",(K2-K3+K4)/(K5+K6))))</f>
+        <v/>
+      </c>
+      <c r="L19" s="60" t="str">
+        <f>IF(L4="","",IF(L5="","",IF(L6="","",(L2-L3+L4)/(L5+L6))))</f>
+        <v/>
+      </c>
+      <c r="M19" s="60" t="str">
+        <f>IF(M4="","",IF(M5="","",IF(M6="","",(M2-M3+M4)/(M5+M6))))</f>
+        <v/>
+      </c>
+      <c r="N19" s="60" t="str">
+        <f>IF(N4="","",IF(N5="","",IF(N6="","",(N2-N3+N4)/(N5+N6))))</f>
+        <v/>
+      </c>
+      <c r="O19" s="60" t="str">
+        <f>IF(O4="","",IF(O5="","",IF(O6="","",(O2-O3+O4)/(O5+O6))))</f>
+        <v/>
+      </c>
+      <c r="P19" s="60" t="str">
+        <f>IF(P4="","",IF(P5="","",IF(P6="","",(P2-P3+P4)/(P5+P6))))</f>
+        <v/>
+      </c>
+      <c r="Q19" s="60" t="str">
+        <f>IF(Q4="","",IF(Q5="","",IF(Q6="","",(Q2-Q3+Q4)/(Q5+Q6))))</f>
+        <v/>
+      </c>
+      <c r="R19" s="60" t="str">
+        <f>IF(R4="","",IF(R5="","",IF(R6="","",(R2-R3+R4)/(R5+R6))))</f>
+        <v/>
+      </c>
+      <c r="S19" s="60" t="str">
+        <f>IF(S4="","",IF(S5="","",IF(S6="","",(S2-S3+S4)/(S5+S6))))</f>
+        <v/>
+      </c>
+      <c r="T19" s="60" t="str">
+        <f>IF(T4="","",IF(T5="","",IF(T6="","",(T2-T3+T4)/(T5+T6))))</f>
+        <v/>
+      </c>
+      <c r="U19" s="60" t="str">
+        <f>IF(U4="","",IF(U5="","",IF(U6="","",(U2-U3+U4)/(U5+U6))))</f>
+        <v/>
+      </c>
+      <c r="V19" s="60" t="str">
+        <f>IF(V4="","",IF(V5="","",IF(V6="","",(V2-V3+V4)/(V5+V6))))</f>
+        <v/>
+      </c>
+      <c r="W19" s="60" t="str">
+        <f>IF(W4="","",IF(W5="","",IF(W6="","",(W2-W3+W4)/(W5+W6))))</f>
+        <v/>
+      </c>
+      <c r="X19" s="60" t="str">
+        <f>IF(X4="","",IF(X5="","",IF(X6="","",(X2-X3+X4)/(X5+X6))))</f>
+        <v/>
+      </c>
+      <c r="Y19" s="60" t="str">
+        <f>IF(Y4="","",IF(Y5="","",IF(Y6="","",(Y2-Y3+Y4)/(Y5+Y6))))</f>
+        <v/>
+      </c>
+      <c r="Z19" s="60" t="str">
+        <f>IF(Z4="","",IF(Z5="","",IF(Z6="","",(Z2-Z3+Z4)/(Z5+Z6))))</f>
+        <v/>
+      </c>
+      <c r="AA19" s="60" t="str">
+        <f>IF(AA4="","",IF(AA5="","",IF(AA6="","",(AA2-AA3+AA4)/(AA5+AA6))))</f>
+        <v/>
+      </c>
+      <c r="AB19" s="60" t="str">
+        <f>IF(AB4="","",IF(AB5="","",IF(AB6="","",(AB2-AB3+AB4)/(AB5+AB6))))</f>
+        <v/>
+      </c>
+      <c r="AC19" s="60" t="str">
+        <f>IF(AC4="","",IF(AC5="","",IF(AC6="","",(AC2-AC3+AC4)/(AC5+AC6))))</f>
+        <v/>
+      </c>
+      <c r="AD19" s="60" t="str">
+        <f>IF(AD4="","",IF(AD5="","",IF(AD6="","",(AD2-AD3+AD4)/(AD5+AD6))))</f>
+        <v/>
+      </c>
+      <c r="AE19" s="60" t="str">
+        <f>IF(AE4="","",IF(AE5="","",IF(AE6="","",(AE2-AE3+AE4)/(AE5+AE6))))</f>
+        <v/>
+      </c>
+      <c r="AF19" s="60" t="str">
+        <f>IF(AF4="","",IF(AF5="","",IF(AF6="","",(AF2-AF3+AF4)/(AF5+AF6))))</f>
+        <v/>
+      </c>
+      <c r="AG19" s="60" t="str">
+        <f>IF(AG4="","",IF(AG5="","",IF(AG6="","",(AG2-AG3+AG4)/(AG5+AG6))))</f>
+        <v/>
+      </c>
+      <c r="AH19" s="60" t="str">
+        <f>IF(AH4="","",IF(AH5="","",IF(AH6="","",(AH2-AH3+AH4)/(AH5+AH6))))</f>
+        <v/>
+      </c>
+      <c r="AI19" s="60" t="str">
+        <f>IF(AI4="","",IF(AI5="","",IF(AI6="","",(AI2-AI3+AI4)/(AI5+AI6))))</f>
+        <v/>
+      </c>
+      <c r="AJ19" s="60" t="str">
+        <f>IF(AJ4="","",IF(AJ5="","",IF(AJ6="","",(AJ2-AJ3+AJ4)/(AJ5+AJ6))))</f>
+        <v/>
+      </c>
+      <c r="AK19" s="60" t="str">
+        <f>IF(AK4="","",IF(AK5="","",IF(AK6="","",(AK2-AK3+AK4)/(AK5+AK6))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>536</v>
+      </c>
+      <c r="C20" s="61" t="s">
+        <v>537</v>
+      </c>
+      <c r="D20" s="61"/>
+      <c r="E20" s="60">
+        <f>IFERROR(IF(E7=0,"",E7/E8), "")</f>
+        <v>1.5419426959347213</v>
+      </c>
+      <c r="F20" s="60">
+        <f t="shared" ref="F20:AK20" si="1">IFERROR(IF(F7=0,"",F7/F8), "")</f>
+        <v>1.4917029108088389</v>
+      </c>
+      <c r="G20" s="60">
+        <f t="shared" si="1"/>
+        <v>2.1387218699134678</v>
+      </c>
+      <c r="H20" s="60">
+        <f t="shared" si="1"/>
+        <v>2.1517122454790876</v>
+      </c>
+      <c r="I20" s="60">
+        <f t="shared" si="1"/>
+        <v>2.1356820564806669</v>
+      </c>
+      <c r="J20" s="60">
+        <f t="shared" si="1"/>
+        <v>6.3454166123353763</v>
+      </c>
+      <c r="K20" s="60">
+        <f t="shared" si="1"/>
+        <v>2.1294335170290219</v>
+      </c>
+      <c r="L20" s="60">
+        <f t="shared" si="1"/>
+        <v>3.7467518468481416</v>
+      </c>
+      <c r="M20" s="60">
+        <f t="shared" si="1"/>
+        <v>3.0466164365773865</v>
+      </c>
+      <c r="N20" s="60">
+        <f t="shared" si="1"/>
+        <v>2.1895370543817378</v>
+      </c>
+      <c r="O20" s="60">
+        <f t="shared" si="1"/>
+        <v>3.0489792018911817</v>
+      </c>
+      <c r="P20" s="60">
+        <f t="shared" si="1"/>
+        <v>2.5001735432414955</v>
+      </c>
+      <c r="Q20" s="60" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R20" s="60" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S20" s="60">
+        <f t="shared" si="1"/>
+        <v>5.1184840757087304</v>
+      </c>
+      <c r="T20" s="60">
+        <f t="shared" si="1"/>
+        <v>2.7288434308438525</v>
+      </c>
+      <c r="U20" s="60">
+        <f t="shared" si="1"/>
+        <v>2.8383854766208989</v>
+      </c>
+      <c r="V20" s="60" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W20" s="60" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="X20" s="60" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y20" s="60" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z20" s="60" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AA20" s="60" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AB20" s="60" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AC20" s="60" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AD20" s="60" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AE20" s="60" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AF20" s="60" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AG20" s="60" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AH20" s="60" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AI20" s="60">
+        <f t="shared" si="1"/>
+        <v>2.4686105702376051</v>
+      </c>
+      <c r="AJ20" s="60">
+        <f t="shared" si="1"/>
+        <v>5.595158582712294</v>
+      </c>
+      <c r="AK20" s="60" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>538</v>
+      </c>
+      <c r="C21" s="61" t="s">
+        <v>539</v>
+      </c>
+      <c r="D21" s="61"/>
+      <c r="E21" s="62">
+        <f>IFERROR(IF(E9=0,"",IF(E4="","",IF(E9="","",E9/((E3-E4)/365)))),"")</f>
+        <v>48.573382079717049</v>
+      </c>
+      <c r="F21" s="62">
+        <f t="shared" ref="F21:AK21" si="2">IFERROR(IF(F9=0,"",IF(F4="","",IF(F9="","",F9/((F3-F4)/365)))),"")</f>
+        <v>86.225176536645179</v>
+      </c>
+      <c r="G21" s="62">
+        <f t="shared" si="2"/>
+        <v>144.17240564967219</v>
+      </c>
+      <c r="H21" s="62">
+        <f t="shared" si="2"/>
+        <v>123.38395789974211</v>
+      </c>
+      <c r="I21" s="62">
+        <f t="shared" si="2"/>
+        <v>90.475375240314051</v>
+      </c>
+      <c r="J21" s="62">
+        <f t="shared" si="2"/>
+        <v>70.61859512968374</v>
+      </c>
+      <c r="K21" s="62">
+        <f t="shared" si="2"/>
+        <v>110.06497069224977</v>
+      </c>
+      <c r="L21" s="62">
+        <f t="shared" si="2"/>
+        <v>174.75339396392593</v>
+      </c>
+      <c r="M21" s="62">
+        <f t="shared" si="2"/>
+        <v>234.02005999675168</v>
+      </c>
+      <c r="N21" s="62">
+        <f t="shared" si="2"/>
+        <v>186.42378047197937</v>
+      </c>
+      <c r="O21" s="62">
+        <f t="shared" si="2"/>
+        <v>128.43625512949998</v>
+      </c>
+      <c r="P21" s="62">
+        <f t="shared" si="2"/>
+        <v>117.09477834296344</v>
+      </c>
+      <c r="Q21" s="62" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R21" s="62" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="S21" s="62">
+        <f t="shared" si="2"/>
+        <v>206.53775645363083</v>
+      </c>
+      <c r="T21" s="62">
+        <f t="shared" si="2"/>
+        <v>194.4072314432664</v>
+      </c>
+      <c r="U21" s="62">
+        <f t="shared" si="2"/>
+        <v>162.16305283730594</v>
+      </c>
+      <c r="V21" s="62" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W21" s="62" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="X21" s="62" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Y21" s="62" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Z21" s="62" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AA21" s="62" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AB21" s="62" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AC21" s="62" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AD21" s="62" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AE21" s="62" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AF21" s="62" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AG21" s="62" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AH21" s="62" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AI21" s="62">
+        <f t="shared" si="2"/>
+        <v>124.76672223197052</v>
+      </c>
+      <c r="AJ21" s="62">
+        <f t="shared" si="2"/>
+        <v>192.17010219998824</v>
+      </c>
+      <c r="AK21" s="62" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>540</v>
+      </c>
+      <c r="C22" s="61" t="s">
+        <v>541</v>
+      </c>
+      <c r="D22" s="61"/>
+      <c r="E22" s="63">
+        <f>IFERROR(IF(E10="","",E10/E11), "")</f>
+        <v>0.39340376651474712</v>
+      </c>
+      <c r="F22" s="63">
+        <f t="shared" ref="F22:AK22" si="3">IFERROR(IF(F10="","",F10/F11), "")</f>
+        <v>0.40429109455046219</v>
+      </c>
+      <c r="G22" s="63">
+        <f t="shared" si="3"/>
+        <v>0.41230478455295477</v>
+      </c>
+      <c r="H22" s="63">
+        <f t="shared" si="3"/>
+        <v>0.42975139852180727</v>
+      </c>
+      <c r="I22" s="63">
+        <f t="shared" si="3"/>
+        <v>0.44236133251883947</v>
+      </c>
+      <c r="J22" s="63">
+        <f t="shared" si="3"/>
+        <v>0.42618628138288966</v>
+      </c>
+      <c r="K22" s="63">
+        <f t="shared" si="3"/>
+        <v>0.44324339492641063</v>
+      </c>
+      <c r="L22" s="63">
+        <f t="shared" si="3"/>
+        <v>0.41845817863947904</v>
+      </c>
+      <c r="M22" s="63">
+        <f t="shared" si="3"/>
+        <v>0.43082670293322967</v>
+      </c>
+      <c r="N22" s="63">
+        <f t="shared" si="3"/>
+        <v>0.38931179586621883</v>
+      </c>
+      <c r="O22" s="63">
+        <f t="shared" si="3"/>
+        <v>0.34870862443803174</v>
+      </c>
+      <c r="P22" s="63">
+        <f t="shared" si="3"/>
+        <v>0.36361855996107567</v>
+      </c>
+      <c r="Q22" s="63" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="R22" s="63" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="S22" s="63">
+        <f t="shared" si="3"/>
+        <v>0.3356081076338594</v>
+      </c>
+      <c r="T22" s="63">
+        <f t="shared" si="3"/>
+        <v>0.3138246301369137</v>
+      </c>
+      <c r="U22" s="63">
+        <f t="shared" si="3"/>
+        <v>0.31978339686710922</v>
+      </c>
+      <c r="V22" s="63" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="W22" s="63" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="X22" s="63" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Y22" s="63" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z22" s="63" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AA22" s="63" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AB22" s="63" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AC22" s="63" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AD22" s="63" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AE22" s="63" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AF22" s="63" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AG22" s="63" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AH22" s="63" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AI22" s="63">
+        <f t="shared" si="3"/>
+        <v>0.81834126643234584</v>
+      </c>
+      <c r="AJ22" s="63">
+        <f t="shared" si="3"/>
+        <v>0.82013611837654288</v>
+      </c>
+      <c r="AK22" s="63" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>542</v>
+      </c>
+      <c r="C23" s="59" t="s">
+        <v>543</v>
+      </c>
+      <c r="D23" s="59"/>
+      <c r="E23" s="60">
+        <f>IFERROR(IF(E12=0,"",IF(E13=0,"",E13/(E12-E13))),"")</f>
+        <v>0.95434586736904203</v>
+      </c>
+      <c r="F23" s="60">
+        <f t="shared" ref="F23:AK23" si="4">IFERROR(IF(F12=0,"",IF(F13=0,"",F13/(F12-F13))),"")</f>
+        <v>1.5934209697056794</v>
+      </c>
+      <c r="G23" s="60">
+        <f t="shared" si="4"/>
+        <v>0.79180551989811598</v>
+      </c>
+      <c r="H23" s="60">
+        <f t="shared" si="4"/>
+        <v>0.95033584119857362</v>
+      </c>
+      <c r="I23" s="60">
+        <f t="shared" si="4"/>
+        <v>0.92829760462722144</v>
+      </c>
+      <c r="J23" s="60">
+        <f t="shared" si="4"/>
+        <v>0.77976463640290861</v>
+      </c>
+      <c r="K23" s="60">
+        <f t="shared" si="4"/>
+        <v>1.5396602051432406</v>
+      </c>
+      <c r="L23" s="60">
+        <f t="shared" si="4"/>
+        <v>1.5410868871584307</v>
+      </c>
+      <c r="M23" s="60">
+        <f t="shared" si="4"/>
+        <v>1.4037194141827398</v>
+      </c>
+      <c r="N23" s="60">
+        <f t="shared" si="4"/>
+        <v>1.6337588920565729</v>
+      </c>
+      <c r="O23" s="60">
+        <f t="shared" si="4"/>
+        <v>1.7952178497098534</v>
+      </c>
+      <c r="P23" s="60">
+        <f t="shared" si="4"/>
+        <v>1.7705365923270124</v>
+      </c>
+      <c r="Q23" s="60" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R23" s="60" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="S23" s="60">
+        <f t="shared" si="4"/>
+        <v>1.3369775149119663</v>
+      </c>
+      <c r="T23" s="60">
+        <f t="shared" si="4"/>
+        <v>1.5570957538249086</v>
+      </c>
+      <c r="U23" s="60">
+        <f t="shared" si="4"/>
+        <v>1.4649824510457079</v>
+      </c>
+      <c r="V23" s="60" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="W23" s="60" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="X23" s="60" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Y23" s="60" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Z23" s="60" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AA23" s="60" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AB23" s="60" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AC23" s="60" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AD23" s="60" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AE23" s="60" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AF23" s="60" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AG23" s="60" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AH23" s="60" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AI23" s="60">
+        <f t="shared" si="4"/>
+        <v>0.71122169312735439</v>
+      </c>
+      <c r="AJ23" s="60">
+        <f t="shared" si="4"/>
+        <v>0.62738402065780663</v>
+      </c>
+      <c r="AK23" s="60" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>544</v>
+      </c>
+      <c r="B24" t="s">
+        <v>545</v>
+      </c>
+      <c r="C24" s="61" t="s">
+        <v>546</v>
+      </c>
+      <c r="D24" s="61"/>
+      <c r="E24" s="64">
+        <f>IFERROR(IF(E10="","",IF(E10=0,"",E10/E4)),"")</f>
+        <v>21.013383258162428</v>
+      </c>
+      <c r="F24" s="64">
+        <f>IFERROR(IF(F10="","",IF(F10=0,"",F10/F4)),"")</f>
+        <v>20.126503970999824</v>
+      </c>
+      <c r="G24" s="64">
+        <f>IFERROR(IF(G10="","",IF(G10=0,"",G10/G4)),"")</f>
+        <v>22.291265158964276</v>
+      </c>
+      <c r="H24" s="64">
+        <f>IFERROR(IF(H10="","",IF(H10=0,"",H10/H4)),"")</f>
+        <v>22.929481943250217</v>
+      </c>
+      <c r="I24" s="64">
+        <f>IFERROR(IF(I10="","",IF(I10=0,"",I10/I4)),"")</f>
+        <v>23.154065827937671</v>
+      </c>
+      <c r="J24" s="64">
+        <f>IFERROR(IF(J10="","",IF(J10=0,"",J10/J4)),"")</f>
+        <v>22.724018492626818</v>
+      </c>
+      <c r="K24" s="64">
+        <f>IFERROR(IF(K10="","",IF(K10=0,"",K10/K4)),"")</f>
+        <v>22.572815354376228</v>
+      </c>
+      <c r="L24" s="64">
+        <f>IFERROR(IF(L10="","",IF(L10=0,"",L10/L4)),"")</f>
+        <v>22.233266337779401</v>
+      </c>
+      <c r="M24" s="64">
+        <f>IFERROR(IF(M10="","",IF(M10=0,"",M10/M4)),"")</f>
+        <v>26.252644116716748</v>
+      </c>
+      <c r="N24" s="64">
+        <f>IFERROR(IF(N10="","",IF(N10=0,"",N10/N4)),"")</f>
+        <v>25.359714572661527</v>
+      </c>
+      <c r="O24" s="64">
+        <f>IFERROR(IF(O10="","",IF(O10=0,"",O10/O4)),"")</f>
+        <v>21.206803183442592</v>
+      </c>
+      <c r="P24" s="64">
+        <f>IFERROR(IF(P10="","",IF(P10=0,"",P10/P4)),"")</f>
+        <v>21.528462128902866</v>
+      </c>
+      <c r="Q24" s="64" t="str">
+        <f>IFERROR(IF(Q10="","",IF(Q10=0,"",Q10/Q4)),"")</f>
+        <v/>
+      </c>
+      <c r="R24" s="64" t="str">
+        <f>IFERROR(IF(R10="","",IF(R10=0,"",R10/R4)),"")</f>
+        <v/>
+      </c>
+      <c r="S24" s="64">
+        <f>IFERROR(IF(S10="","",IF(S10=0,"",S10/S4)),"")</f>
+        <v>22.993076712788977</v>
+      </c>
+      <c r="T24" s="64">
+        <f>IFERROR(IF(T10="","",IF(T10=0,"",T10/T4)),"")</f>
+        <v>20.346087549328249</v>
+      </c>
+      <c r="U24" s="64">
+        <f>IFERROR(IF(U10="","",IF(U10=0,"",U10/U4)),"")</f>
+        <v>19.167307559066028</v>
+      </c>
+      <c r="V24" s="64" t="str">
+        <f>IFERROR(IF(V10="","",IF(V10=0,"",V10/V4)),"")</f>
+        <v/>
+      </c>
+      <c r="W24" s="64" t="str">
+        <f>IFERROR(IF(W10="","",IF(W10=0,"",W10/W4)),"")</f>
+        <v/>
+      </c>
+      <c r="X24" s="64" t="str">
+        <f>IFERROR(IF(X10="","",IF(X10=0,"",X10/X4)),"")</f>
+        <v/>
+      </c>
+      <c r="Y24" s="64" t="str">
+        <f>IFERROR(IF(Y10="","",IF(Y10=0,"",Y10/Y4)),"")</f>
+        <v/>
+      </c>
+      <c r="Z24" s="64" t="str">
+        <f>IFERROR(IF(Z10="","",IF(Z10=0,"",Z10/Z4)),"")</f>
+        <v/>
+      </c>
+      <c r="AA24" s="64" t="str">
+        <f>IFERROR(IF(AA10="","",IF(AA10=0,"",AA10/AA4)),"")</f>
+        <v/>
+      </c>
+      <c r="AB24" s="64" t="str">
+        <f>IFERROR(IF(AB10="","",IF(AB10=0,"",AB10/AB4)),"")</f>
+        <v/>
+      </c>
+      <c r="AC24" s="64" t="str">
+        <f>IFERROR(IF(AC10="","",IF(AC10=0,"",AC10/AC4)),"")</f>
+        <v/>
+      </c>
+      <c r="AD24" s="64" t="str">
+        <f>IFERROR(IF(AD10="","",IF(AD10=0,"",AD10/AD4)),"")</f>
+        <v/>
+      </c>
+      <c r="AE24" s="64" t="str">
+        <f>IFERROR(IF(AE10="","",IF(AE10=0,"",AE10/AE4)),"")</f>
+        <v/>
+      </c>
+      <c r="AF24" s="64" t="str">
+        <f>IFERROR(IF(AF10="","",IF(AF10=0,"",AF10/AF4)),"")</f>
+        <v/>
+      </c>
+      <c r="AG24" s="64" t="str">
+        <f>IFERROR(IF(AG10="","",IF(AG10=0,"",AG10/AG4)),"")</f>
+        <v/>
+      </c>
+      <c r="AH24" s="64" t="str">
+        <f>IFERROR(IF(AH10="","",IF(AH10=0,"",AH10/AH4)),"")</f>
+        <v/>
+      </c>
+      <c r="AI24" s="64">
+        <f>IFERROR(IF(AI10="","",IF(AI10=0,"",AI10/AI4)),"")</f>
+        <v>61.100638881051232</v>
+      </c>
+      <c r="AJ24" s="64">
+        <f>IFERROR(IF(AJ10="","",IF(AJ10=0,"",AJ10/AJ4)),"")</f>
+        <v>60.946024303646041</v>
+      </c>
+      <c r="AK24" s="64" t="str">
+        <f>IFERROR(IF(AK10="","",IF(AK10=0,"",AK10/AK4)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>547</v>
+      </c>
+      <c r="B25" t="s">
+        <v>548</v>
+      </c>
+      <c r="C25" s="59" t="s">
+        <v>527</v>
+      </c>
+      <c r="D25" s="59"/>
+      <c r="E25" s="68" t="str">
+        <f>IFERROR(IF(E14=0,"",IF(E14&lt;0,"",E14)),"")</f>
+        <v/>
+      </c>
+      <c r="F25" s="68">
+        <f t="shared" ref="F25:AK25" si="5">IFERROR(IF(F14=0,"",IF(F14&lt;0,"",F14)),"")</f>
+        <v>419108</v>
+      </c>
+      <c r="G25" s="68">
+        <f t="shared" si="5"/>
+        <v>439678</v>
+      </c>
+      <c r="H25" s="68">
+        <f t="shared" si="5"/>
+        <v>217278</v>
+      </c>
+      <c r="I25" s="68">
+        <f t="shared" si="5"/>
+        <v>344951</v>
+      </c>
+      <c r="J25" s="68">
+        <f t="shared" si="5"/>
+        <v>1069510</v>
+      </c>
+      <c r="K25" s="68">
+        <f t="shared" si="5"/>
+        <v>282861</v>
+      </c>
+      <c r="L25" s="68">
+        <f t="shared" si="5"/>
+        <v>1431394</v>
+      </c>
+      <c r="M25" s="68">
+        <f t="shared" si="5"/>
+        <v>318682</v>
+      </c>
+      <c r="N25" s="68">
+        <f t="shared" si="5"/>
+        <v>2092944</v>
+      </c>
+      <c r="O25" s="68">
+        <f t="shared" si="5"/>
+        <v>2712401</v>
+      </c>
+      <c r="P25" s="68">
+        <f t="shared" si="5"/>
+        <v>377759</v>
+      </c>
+      <c r="Q25" s="68" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="R25" s="68" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="S25" s="68"/>
+      <c r="T25" s="68">
+        <f t="shared" si="5"/>
+        <v>2954548</v>
+      </c>
+      <c r="U25" s="68">
+        <f t="shared" si="5"/>
+        <v>1231935</v>
+      </c>
+      <c r="V25" s="68" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="W25" s="68" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="X25" s="68" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Y25" s="68" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="Z25" s="68" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AA25" s="68" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AB25" s="68" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AC25" s="68" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AD25" s="68" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AE25" s="68" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AF25" s="68" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AG25" s="68"/>
+      <c r="AH25" s="68"/>
+      <c r="AI25" s="68"/>
+      <c r="AJ25" s="68">
+        <f t="shared" si="5"/>
+        <v>1666097</v>
+      </c>
+      <c r="AK25" s="68" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>549</v>
+      </c>
+      <c r="C26" s="59" t="s">
+        <v>550</v>
+      </c>
+      <c r="D26" s="59"/>
+      <c r="E26" s="63" t="str">
+        <f>IFERROR(IF(E25/E4=0, "",E25/E4),"")</f>
+        <v/>
+      </c>
+      <c r="F26" s="63">
+        <f t="shared" ref="F26:AK26" si="6">IFERROR(IF(F25/F4=0, "",F25/F4),"")</f>
+        <v>2.1642103958606587</v>
+      </c>
+      <c r="G26" s="63">
+        <f t="shared" si="6"/>
+        <v>2.4018245384027095</v>
+      </c>
+      <c r="H26" s="63">
+        <f t="shared" si="6"/>
+        <v>1.167659071367154</v>
+      </c>
+      <c r="I26" s="63">
+        <f t="shared" si="6"/>
+        <v>1.7910879419293537</v>
+      </c>
+      <c r="J26" s="63">
+        <f t="shared" si="6"/>
+        <v>5.2102342756648525</v>
+      </c>
+      <c r="K26" s="63">
+        <f t="shared" si="6"/>
+        <v>1.3081789802289281</v>
+      </c>
+      <c r="L26" s="63">
+        <f t="shared" si="6"/>
+        <v>6.2270801249423577</v>
+      </c>
+      <c r="M26" s="63">
+        <f t="shared" si="6"/>
+        <v>1.5750138383678634</v>
+      </c>
+      <c r="N26" s="63">
+        <f t="shared" si="6"/>
+        <v>9.598062909579518</v>
+      </c>
+      <c r="O26" s="63">
+        <f t="shared" si="6"/>
+        <v>9.911355447881725</v>
+      </c>
+      <c r="P26" s="63">
+        <f t="shared" si="6"/>
+        <v>1.3362114400319764</v>
+      </c>
+      <c r="Q26" s="63" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="R26" s="63" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="S26" s="63" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T26" s="63">
+        <f t="shared" si="6"/>
+        <v>8.1877909812441807</v>
+      </c>
+      <c r="U26" s="63">
+        <f t="shared" si="6"/>
+        <v>3.0484084093001158</v>
+      </c>
+      <c r="V26" s="63" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="W26" s="63" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="X26" s="63" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y26" s="63" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z26" s="63" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA26" s="63" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB26" s="63" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AC26" s="63" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AD26" s="63" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AE26" s="63" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AF26" s="63" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AG26" s="63" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AH26" s="63" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AI26" s="63" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AJ26" s="63">
+        <f t="shared" si="6"/>
+        <v>2.058996835063688</v>
+      </c>
+      <c r="AK26" s="63" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+    </row>
+    <row r="28" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B28" s="66" t="s">
+        <v>551</v>
+      </c>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>552</v>
+      </c>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -29625,7 +33398,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A28" sqref="A28:C30"/>
     </sheetView>
   </sheetViews>
@@ -30781,8 +34554,8 @@
   <dimension ref="A1:J120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G90" sqref="G90:G120"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
